--- a/Code/Results/Cases/Case_6_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.39549969417819</v>
+        <v>24.39549969417821</v>
       </c>
       <c r="C2">
-        <v>17.68584438955772</v>
+        <v>17.68584438955775</v>
       </c>
       <c r="D2">
-        <v>3.326566922601822</v>
+        <v>3.32656692260184</v>
       </c>
       <c r="E2">
-        <v>6.851360984015463</v>
+        <v>6.851360984015447</v>
       </c>
       <c r="F2">
-        <v>64.42041434982386</v>
+        <v>64.42041434982417</v>
       </c>
       <c r="G2">
-        <v>2.085527756608229</v>
+        <v>2.085527756608769</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.325939295862287</v>
+        <v>7.325939295862289</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58715488622958</v>
+        <v>22.58715488622956</v>
       </c>
       <c r="C3">
-        <v>16.3450794543717</v>
+        <v>16.34507945437163</v>
       </c>
       <c r="D3">
-        <v>3.142545918724141</v>
+        <v>3.14254591872415</v>
       </c>
       <c r="E3">
-        <v>6.682178172299638</v>
+        <v>6.682178172299606</v>
       </c>
       <c r="F3">
-        <v>60.90180990660338</v>
+        <v>60.90180990660329</v>
       </c>
       <c r="G3">
-        <v>2.102142129754263</v>
+        <v>2.10214212975413</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.149040377697974</v>
+        <v>7.149040377697911</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.4391242892268</v>
+        <v>21.43912428922681</v>
       </c>
       <c r="C4">
-        <v>15.49151845811554</v>
+        <v>15.49151845811548</v>
       </c>
       <c r="D4">
-        <v>3.028329578806305</v>
+        <v>3.028329578806308</v>
       </c>
       <c r="E4">
-        <v>6.585352673984521</v>
+        <v>6.585352673984477</v>
       </c>
       <c r="F4">
-        <v>58.71695283085542</v>
+        <v>58.71695283085548</v>
       </c>
       <c r="G4">
-        <v>2.112452945414736</v>
+        <v>2.112452945414733</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01340318032872</v>
+        <v>21.01340318032875</v>
       </c>
       <c r="C5">
-        <v>15.13577606984793</v>
+        <v>15.1357760698479</v>
       </c>
       <c r="D5">
-        <v>2.981419424807776</v>
+        <v>2.981419424807721</v>
       </c>
       <c r="E5">
-        <v>6.54762403400313</v>
+        <v>6.547624034003249</v>
       </c>
       <c r="F5">
-        <v>57.82051075630135</v>
+        <v>57.82051075630091</v>
       </c>
       <c r="G5">
-        <v>2.116689964252453</v>
+        <v>2.116689964252718</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.004277455437448</v>
+        <v>7.00427745543749</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94232180762636</v>
+        <v>20.94232180762635</v>
       </c>
       <c r="C6">
-        <v>15.07622055640331</v>
+        <v>15.07622055640347</v>
       </c>
       <c r="D6">
-        <v>2.973606458389936</v>
+        <v>2.973606458389841</v>
       </c>
       <c r="E6">
-        <v>6.541462399881697</v>
+        <v>6.541462399881796</v>
       </c>
       <c r="F6">
-        <v>57.67129540419529</v>
+        <v>57.67129540419522</v>
       </c>
       <c r="G6">
-        <v>2.117395857673202</v>
+        <v>2.117395857672808</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.997528493730923</v>
+        <v>6.997528493730916</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43340913310334</v>
+        <v>21.43340913310335</v>
       </c>
       <c r="C7">
-        <v>15.486753144726</v>
+        <v>15.48675314472606</v>
       </c>
       <c r="D7">
-        <v>3.027698481878569</v>
+        <v>3.027698481878534</v>
       </c>
       <c r="E7">
-        <v>6.584836909258331</v>
+        <v>6.584836909258304</v>
       </c>
       <c r="F7">
-        <v>58.70488752950709</v>
+        <v>58.70488752950712</v>
       </c>
       <c r="G7">
-        <v>2.112509934929775</v>
+        <v>2.112509934929902</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.044787279358995</v>
+        <v>7.04478727935899</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78041530250786</v>
+        <v>23.78041530250784</v>
       </c>
       <c r="C8">
-        <v>17.22965132800612</v>
+        <v>17.22965132800623</v>
       </c>
       <c r="D8">
-        <v>3.263332520582338</v>
+        <v>3.263332520582367</v>
       </c>
       <c r="E8">
-        <v>6.791533545124258</v>
+        <v>6.791533545124291</v>
       </c>
       <c r="F8">
-        <v>63.21221099297553</v>
+        <v>63.21221099297548</v>
       </c>
       <c r="G8">
-        <v>2.091238624627597</v>
+        <v>2.091238624627337</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.263890419365995</v>
+        <v>7.263890419366039</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.07997510026793</v>
+        <v>28.07997510026791</v>
       </c>
       <c r="C9">
-        <v>20.42341241651332</v>
+        <v>20.42341241651322</v>
       </c>
       <c r="D9">
-        <v>3.71901575696753</v>
+        <v>3.719015756967529</v>
       </c>
       <c r="E9">
-        <v>7.255374318380972</v>
+        <v>7.255374318381006</v>
       </c>
       <c r="F9">
-        <v>71.87090680830588</v>
+        <v>71.87090680830582</v>
       </c>
       <c r="G9">
-        <v>2.049986577375203</v>
+        <v>2.04998657737493</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.735408052162547</v>
+        <v>7.735408052162549</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08242647032321</v>
+        <v>31.08242647032308</v>
       </c>
       <c r="C10">
-        <v>22.66293889465786</v>
+        <v>22.66293889465777</v>
       </c>
       <c r="D10">
-        <v>4.055948236965491</v>
+        <v>4.055948236965454</v>
       </c>
       <c r="E10">
-        <v>7.636655052414314</v>
+        <v>7.636655052414286</v>
       </c>
       <c r="F10">
-        <v>78.16760248679084</v>
+        <v>78.1676024867905</v>
       </c>
       <c r="G10">
-        <v>2.019273483047873</v>
+        <v>2.019273483047868</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.112504335904855</v>
+        <v>8.112504335904848</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.42475544374039</v>
+        <v>32.42475544374044</v>
       </c>
       <c r="C11">
-        <v>23.66747510607611</v>
+        <v>23.66747510607631</v>
       </c>
       <c r="D11">
-        <v>4.21154532172054</v>
+        <v>4.211545321720513</v>
       </c>
       <c r="E11">
-        <v>7.820519462515501</v>
+        <v>7.820519462515488</v>
       </c>
       <c r="F11">
-        <v>81.03661712272813</v>
+        <v>81.03661712272809</v>
       </c>
       <c r="G11">
-        <v>2.005015573879598</v>
+        <v>2.005015573879688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.292365676361301</v>
+        <v>8.292365676361314</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.93082496845201</v>
+        <v>32.93082496845203</v>
       </c>
       <c r="C12">
-        <v>24.0467960727882</v>
+        <v>24.04679607278829</v>
       </c>
       <c r="D12">
-        <v>4.271005497818862</v>
+        <v>4.271005497818943</v>
       </c>
       <c r="E12">
-        <v>7.891834972870628</v>
+        <v>7.89183497287064</v>
       </c>
       <c r="F12">
-        <v>82.12599560439359</v>
+        <v>82.12599560439369</v>
       </c>
       <c r="G12">
-        <v>1.999554066371882</v>
+        <v>1.999554066372039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.361861044651105</v>
+        <v>8.361861044651121</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.82191233280151</v>
+        <v>32.8219123328015</v>
       </c>
       <c r="C13">
-        <v>23.96513225641999</v>
+        <v>23.96513225642006</v>
       </c>
       <c r="D13">
-        <v>4.258171887974826</v>
+        <v>4.258171887974875</v>
       </c>
       <c r="E13">
-        <v>7.876397007580326</v>
+        <v>7.876397007580313</v>
       </c>
       <c r="F13">
-        <v>81.89120325082918</v>
+        <v>81.89120325082926</v>
       </c>
       <c r="G13">
-        <v>2.000733463778298</v>
+        <v>2.000733463778432</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.346828713427714</v>
+        <v>8.346828713427703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.46642747700106</v>
+        <v>32.46642747700096</v>
       </c>
       <c r="C14">
-        <v>23.69869719387714</v>
+        <v>23.69869719387722</v>
       </c>
       <c r="D14">
-        <v>4.216424985454055</v>
+        <v>4.216424985454095</v>
       </c>
       <c r="E14">
-        <v>7.826351440586767</v>
+        <v>7.826351440586778</v>
       </c>
       <c r="F14">
-        <v>81.12616625031738</v>
+        <v>81.12616625031735</v>
       </c>
       <c r="G14">
-        <v>2.004567640951963</v>
+        <v>2.004567640951721</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.298054042757476</v>
+        <v>8.298054042757496</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.2484294191302</v>
+        <v>32.24842941913029</v>
       </c>
       <c r="C15">
-        <v>23.53539091177285</v>
+        <v>23.53539091177286</v>
       </c>
       <c r="D15">
-        <v>4.190930948536892</v>
+        <v>4.190930948536932</v>
       </c>
       <c r="E15">
-        <v>7.795923923485407</v>
+        <v>7.795923923485382</v>
       </c>
       <c r="F15">
-        <v>80.6580225834098</v>
+        <v>80.65802258340952</v>
       </c>
       <c r="G15">
-        <v>2.006907353293115</v>
+        <v>2.006907353292977</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.268365192543783</v>
+        <v>8.268365192543781</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.99432035058513</v>
+        <v>30.99432035058508</v>
       </c>
       <c r="C16">
-        <v>22.59708152791747</v>
+        <v>22.59708152791757</v>
       </c>
       <c r="D16">
-        <v>4.045842736725537</v>
+        <v>4.045842736725506</v>
       </c>
       <c r="E16">
-        <v>7.624863787714004</v>
+        <v>7.624863787713975</v>
       </c>
       <c r="F16">
-        <v>77.98037756657207</v>
+        <v>77.98037756657182</v>
       </c>
       <c r="G16">
-        <v>2.020197806975919</v>
+        <v>2.020197806976031</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.100932358021648</v>
+        <v>8.100932358021586</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.21967299643578</v>
+        <v>30.21967299643577</v>
       </c>
       <c r="C17">
-        <v>22.01843491455726</v>
+        <v>22.01843491455727</v>
       </c>
       <c r="D17">
-        <v>3.957561575381479</v>
+        <v>3.95756157538153</v>
       </c>
       <c r="E17">
-        <v>7.522710890762538</v>
+        <v>7.522710890762495</v>
       </c>
       <c r="F17">
-        <v>76.34031935365846</v>
+        <v>76.34031935365878</v>
       </c>
       <c r="G17">
-        <v>2.028264109989072</v>
+        <v>2.028264109989081</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.00046695289592</v>
+        <v>8.000466952895923</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.77182208955496</v>
+        <v>29.77182208955513</v>
       </c>
       <c r="C18">
-        <v>21.68420279204372</v>
+        <v>21.68420279204384</v>
       </c>
       <c r="D18">
-        <v>3.906988572048874</v>
+        <v>3.906988572048868</v>
       </c>
       <c r="E18">
-        <v>7.46492134887779</v>
+        <v>7.464921348877775</v>
       </c>
       <c r="F18">
-        <v>75.39726187554923</v>
+        <v>75.39726187554948</v>
       </c>
       <c r="G18">
-        <v>2.032878189920086</v>
+        <v>2.03287818991996</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.61976305480275</v>
+        <v>29.6197630548029</v>
       </c>
       <c r="C19">
-        <v>21.57076940217669</v>
+        <v>21.57076940217694</v>
       </c>
       <c r="D19">
-        <v>3.889895017895926</v>
+        <v>3.889895017895975</v>
       </c>
       <c r="E19">
-        <v>7.445515816839674</v>
+        <v>7.445515816839597</v>
       </c>
       <c r="F19">
-        <v>75.07794526441968</v>
+        <v>75.07794526442028</v>
       </c>
       <c r="G19">
-        <v>2.034436637581058</v>
+        <v>2.034436637581171</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.924273243290177</v>
+        <v>7.924273243290136</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.30236559047396</v>
+        <v>30.30236559047394</v>
       </c>
       <c r="C20">
-        <v>22.08017243896162</v>
+        <v>22.08017243896181</v>
       </c>
       <c r="D20">
-        <v>3.966936820989268</v>
+        <v>3.966936820989199</v>
       </c>
       <c r="E20">
-        <v>7.533484049949656</v>
+        <v>7.533484049949671</v>
       </c>
       <c r="F20">
-        <v>76.51486508226235</v>
+        <v>76.51486508226239</v>
       </c>
       <c r="G20">
-        <v>2.027408209862271</v>
+        <v>2.027408209862537</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.011080885218128</v>
+        <v>8.011080885218131</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.57089234420544</v>
+        <v>32.57089234420537</v>
       </c>
       <c r="C21">
-        <v>23.77697586872367</v>
+        <v>23.77697586872368</v>
       </c>
       <c r="D21">
-        <v>4.228670543762047</v>
+        <v>4.228670543761953</v>
       </c>
       <c r="E21">
-        <v>7.84100333092532</v>
+        <v>7.841003330925355</v>
       </c>
       <c r="F21">
-        <v>81.35077441996916</v>
+        <v>81.3507744199687</v>
       </c>
       <c r="G21">
-        <v>2.003443335784338</v>
+        <v>2.00344333578448</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.04119129708086</v>
+        <v>34.04119129708092</v>
       </c>
       <c r="C22">
-        <v>24.88030750951492</v>
+        <v>24.88030750951495</v>
       </c>
       <c r="D22">
-        <v>4.403006120950939</v>
+        <v>4.403006120951</v>
       </c>
       <c r="E22">
-        <v>8.051973779427815</v>
+        <v>8.051973779427833</v>
       </c>
       <c r="F22">
-        <v>84.53011098588399</v>
+        <v>84.53011098588431</v>
       </c>
       <c r="G22">
         <v>1.987403754772853</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.517441331539796</v>
+        <v>8.517441331539805</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.25713743839172</v>
+        <v>33.25713743839182</v>
       </c>
       <c r="C23">
-        <v>24.29156601807756</v>
+        <v>24.29156601807779</v>
       </c>
       <c r="D23">
-        <v>4.309577897626444</v>
+        <v>4.309577897626562</v>
       </c>
       <c r="E23">
-        <v>7.93838025459482</v>
+        <v>7.938380254594743</v>
       </c>
       <c r="F23">
-        <v>82.83056524532279</v>
+        <v>82.83056524532374</v>
       </c>
       <c r="G23">
-        <v>1.996007268879953</v>
+        <v>1.996007268879931</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.407146006337314</v>
+        <v>8.407146006337332</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26498812470851</v>
+        <v>30.26498812470846</v>
       </c>
       <c r="C24">
-        <v>22.05226583481515</v>
+        <v>22.05226583481507</v>
       </c>
       <c r="D24">
-        <v>3.962697723365214</v>
+        <v>3.962697723365296</v>
       </c>
       <c r="E24">
-        <v>7.528610591905823</v>
+        <v>7.528610591905852</v>
       </c>
       <c r="F24">
-        <v>76.43595363818503</v>
+        <v>76.43595363818486</v>
       </c>
       <c r="G24">
-        <v>2.02779523349488</v>
+        <v>2.027795233494631</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.006280026441265</v>
+        <v>8.006280026441294</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94723478706929</v>
+        <v>26.94723478706926</v>
       </c>
       <c r="C25">
-        <v>19.58073189533232</v>
+        <v>19.58073189533245</v>
       </c>
       <c r="D25">
-        <v>3.595886065666863</v>
+        <v>3.59588606566679</v>
       </c>
       <c r="E25">
-        <v>7.123211475614936</v>
+        <v>7.123211475615012</v>
       </c>
       <c r="F25">
-        <v>69.5445564408321</v>
+        <v>69.54455644083151</v>
       </c>
       <c r="G25">
-        <v>2.061160397892714</v>
+        <v>2.061160397892845</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.602914247501643</v>
+        <v>7.60291424750163</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.39549969417821</v>
+        <v>24.35395338614069</v>
       </c>
       <c r="C2">
-        <v>17.68584438955775</v>
+        <v>20.05770378131781</v>
       </c>
       <c r="D2">
-        <v>3.32656692260184</v>
+        <v>6.707676176155155</v>
       </c>
       <c r="E2">
-        <v>6.851360984015447</v>
+        <v>10.68350639889249</v>
       </c>
       <c r="F2">
-        <v>64.42041434982417</v>
+        <v>26.73630056587473</v>
       </c>
       <c r="G2">
-        <v>2.085527756608769</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>32.33438935445173</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.848376691328823</v>
       </c>
       <c r="J2">
-        <v>7.325939295862289</v>
+        <v>10.61988605569925</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.27234020259953</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.447492235020472</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +465,46 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58715488622956</v>
+        <v>22.71937947864836</v>
       </c>
       <c r="C3">
-        <v>16.34507945437163</v>
+        <v>18.69530507097802</v>
       </c>
       <c r="D3">
-        <v>3.14254591872415</v>
+        <v>6.408701422776542</v>
       </c>
       <c r="E3">
-        <v>6.682178172299606</v>
+        <v>10.23004035190196</v>
       </c>
       <c r="F3">
-        <v>60.90180990660329</v>
+        <v>25.97020842763814</v>
       </c>
       <c r="G3">
-        <v>2.10214212975413</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.21438721417725</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.590077207631681</v>
       </c>
       <c r="J3">
-        <v>7.149040377697911</v>
+        <v>10.55775896323417</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.4450457178931</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.330751140310695</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +515,46 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.43912428922681</v>
+        <v>21.65609264302276</v>
       </c>
       <c r="C4">
-        <v>15.49151845811548</v>
+        <v>17.81662571727744</v>
       </c>
       <c r="D4">
-        <v>3.028329578806308</v>
+        <v>6.222061604270871</v>
       </c>
       <c r="E4">
-        <v>6.585352673984477</v>
+        <v>9.948710739283635</v>
       </c>
       <c r="F4">
-        <v>58.71695283085548</v>
+        <v>25.51199862255942</v>
       </c>
       <c r="G4">
-        <v>2.112452945414733</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>30.54003147124775</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.517638481155833</v>
       </c>
       <c r="J4">
-        <v>7.045345891746805</v>
+        <v>10.52735513360394</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.56187402985684</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.262014593504109</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +565,46 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01340318032875</v>
+        <v>21.20750229226094</v>
       </c>
       <c r="C5">
-        <v>15.1357760698479</v>
+        <v>17.46043170369011</v>
       </c>
       <c r="D5">
-        <v>2.981419424807721</v>
+        <v>6.149353993431376</v>
       </c>
       <c r="E5">
-        <v>6.547624034003249</v>
+        <v>9.835334995322416</v>
       </c>
       <c r="F5">
-        <v>57.82051075630091</v>
+        <v>25.3117737153316</v>
       </c>
       <c r="G5">
-        <v>2.116689964252718</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>30.2384960268405</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.591418969776365</v>
       </c>
       <c r="J5">
-        <v>7.00427745543749</v>
+        <v>10.51117486130696</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.60112354394767</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.234389785774343</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +615,46 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94232180762635</v>
+        <v>21.13186265577658</v>
       </c>
       <c r="C6">
-        <v>15.07622055640347</v>
+        <v>17.415993018411</v>
       </c>
       <c r="D6">
-        <v>2.973606458389841</v>
+        <v>6.142165837795144</v>
       </c>
       <c r="E6">
-        <v>6.541462399881796</v>
+        <v>9.818733976542998</v>
       </c>
       <c r="F6">
-        <v>57.67129540419522</v>
+        <v>25.25829749876821</v>
       </c>
       <c r="G6">
-        <v>2.117395857672808</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>30.15154030680556</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.607919129959557</v>
       </c>
       <c r="J6">
-        <v>6.997528493730916</v>
+        <v>10.50168567366107</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.59449901350833</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.22940467250549</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +665,46 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43340913310335</v>
+        <v>21.64946431125227</v>
       </c>
       <c r="C7">
-        <v>15.48675314472606</v>
+        <v>17.85273677013773</v>
       </c>
       <c r="D7">
-        <v>3.027698481878534</v>
+        <v>6.234305235250747</v>
       </c>
       <c r="E7">
-        <v>6.584836909258304</v>
+        <v>9.953243263900882</v>
       </c>
       <c r="F7">
-        <v>58.70488752950712</v>
+        <v>25.45400360778896</v>
       </c>
       <c r="G7">
-        <v>2.112509934929902</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>30.43569433156371</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.529771087129626</v>
       </c>
       <c r="J7">
-        <v>7.04478727935899</v>
+        <v>10.50828871630538</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.52597763039591</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.260433155941255</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +715,46 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78041530250784</v>
+        <v>23.80185664376993</v>
       </c>
       <c r="C8">
-        <v>17.22965132800623</v>
+        <v>19.64633608000655</v>
       </c>
       <c r="D8">
-        <v>3.263332520582367</v>
+        <v>6.621796796062885</v>
       </c>
       <c r="E8">
-        <v>6.791533545124291</v>
+        <v>10.53541435847735</v>
       </c>
       <c r="F8">
-        <v>63.21221099297548</v>
+        <v>26.39905867295095</v>
       </c>
       <c r="G8">
-        <v>2.091238624627337</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>31.818363468749</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.762344529641565</v>
       </c>
       <c r="J8">
-        <v>7.263890419366039</v>
+        <v>10.57210947403443</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.28090428358926</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.405064853565555</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +765,46 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.07997510026791</v>
+        <v>27.55503282899155</v>
       </c>
       <c r="C9">
-        <v>20.42341241651322</v>
+        <v>22.76842725891403</v>
       </c>
       <c r="D9">
-        <v>3.719015756967529</v>
+        <v>7.331909053317951</v>
       </c>
       <c r="E9">
-        <v>7.255374318381006</v>
+        <v>11.6382874700951</v>
       </c>
       <c r="F9">
-        <v>71.87090680830582</v>
+        <v>28.43757072127178</v>
       </c>
       <c r="G9">
-        <v>2.04998657737493</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>34.79464292593185</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.385356297458446</v>
       </c>
       <c r="J9">
-        <v>7.735408052162549</v>
+        <v>10.79578926828511</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.96128578600011</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.713773293243869</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +815,46 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08242647032308</v>
+        <v>30.03299813011808</v>
       </c>
       <c r="C10">
-        <v>22.66293889465777</v>
+        <v>24.88271645771817</v>
       </c>
       <c r="D10">
-        <v>4.055948236965454</v>
+        <v>7.838232739000691</v>
       </c>
       <c r="E10">
-        <v>7.636655052414286</v>
+        <v>12.42737551774031</v>
       </c>
       <c r="F10">
-        <v>78.1676024867905</v>
+        <v>29.95936106287002</v>
       </c>
       <c r="G10">
-        <v>2.019273483047868</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>36.98410930534666</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.829630816658954</v>
       </c>
       <c r="J10">
-        <v>8.112504335904848</v>
+        <v>10.99592594901295</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.78003034114717</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.953556412510846</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +865,46 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.42475544374044</v>
+        <v>31.10022437035006</v>
       </c>
       <c r="C11">
-        <v>23.66747510607631</v>
+        <v>25.85050533127177</v>
       </c>
       <c r="D11">
-        <v>4.211545321720513</v>
+        <v>8.08007682539114</v>
       </c>
       <c r="E11">
-        <v>7.820519462515488</v>
+        <v>12.7878737623979</v>
       </c>
       <c r="F11">
-        <v>81.03661712272809</v>
+        <v>30.58640909789102</v>
       </c>
       <c r="G11">
-        <v>2.005015573879688</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>37.85764533032538</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.03155453287204</v>
       </c>
       <c r="J11">
-        <v>8.292365676361314</v>
+        <v>11.06899122779243</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.65527477894684</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.063712771018002</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +915,46 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.93082496845203</v>
+        <v>31.49648495105434</v>
       </c>
       <c r="C12">
-        <v>24.04679607278829</v>
+        <v>26.18504017951749</v>
       </c>
       <c r="D12">
-        <v>4.271005497818943</v>
+        <v>8.161711598099558</v>
       </c>
       <c r="E12">
-        <v>7.89183497287064</v>
+        <v>12.91928124503062</v>
       </c>
       <c r="F12">
-        <v>82.12599560439369</v>
+        <v>30.86613814728096</v>
       </c>
       <c r="G12">
-        <v>1.999554066372039</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.26166924298749</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.10644929891408</v>
       </c>
       <c r="J12">
-        <v>8.361861044651121</v>
+        <v>11.1137934119474</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.64363706928932</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.106803594113802</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +965,46 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.8219123328015</v>
+        <v>31.41161304900554</v>
       </c>
       <c r="C13">
-        <v>23.96513225642006</v>
+        <v>26.10814873383044</v>
       </c>
       <c r="D13">
-        <v>4.258171887974875</v>
+        <v>8.142367156440214</v>
       </c>
       <c r="E13">
-        <v>7.876397007580313</v>
+        <v>12.89020296606715</v>
       </c>
       <c r="F13">
-        <v>81.89120325082926</v>
+        <v>30.81389016922502</v>
       </c>
       <c r="G13">
-        <v>2.000733463778432</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.18872899655765</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.09003978531071</v>
       </c>
       <c r="J13">
-        <v>8.346828713427703</v>
+        <v>11.10715479758101</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.65255524941331</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.097697568732364</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1015,46 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.46642747700096</v>
+        <v>31.13303435529942</v>
       </c>
       <c r="C14">
-        <v>23.69869719387722</v>
+        <v>25.87595853550549</v>
       </c>
       <c r="D14">
-        <v>4.216424985454095</v>
+        <v>8.086039569519095</v>
       </c>
       <c r="E14">
-        <v>7.826351440586778</v>
+        <v>12.79835293825442</v>
       </c>
       <c r="F14">
-        <v>81.12616625031735</v>
+        <v>30.6128388540566</v>
       </c>
       <c r="G14">
-        <v>2.004567640951721</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>37.8969042088094</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.03759023372004</v>
       </c>
       <c r="J14">
-        <v>8.298054042757496</v>
+        <v>11.07395781415637</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.65703648437759</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.067331742385657</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1065,46 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.24842941913029</v>
+        <v>30.96111413372571</v>
       </c>
       <c r="C15">
-        <v>23.53539091177286</v>
+        <v>25.74319588807187</v>
       </c>
       <c r="D15">
-        <v>4.190930948536932</v>
+        <v>8.055024992440057</v>
       </c>
       <c r="E15">
-        <v>7.795923923485382</v>
+        <v>12.74360751047811</v>
       </c>
       <c r="F15">
-        <v>80.65802258340952</v>
+        <v>30.47380912199521</v>
       </c>
       <c r="G15">
-        <v>2.006907353292977</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>37.69010143992748</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.006097905620881</v>
       </c>
       <c r="J15">
-        <v>8.268365192543781</v>
+        <v>11.0477328822408</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.64730299442818</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.048403461283856</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1115,46 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.99432035058508</v>
+        <v>29.96040782135346</v>
       </c>
       <c r="C16">
-        <v>22.59708152791757</v>
+        <v>24.90676903666599</v>
       </c>
       <c r="D16">
-        <v>4.045842736725506</v>
+        <v>7.853162033683692</v>
       </c>
       <c r="E16">
-        <v>7.624863787713975</v>
+        <v>12.41776696543341</v>
       </c>
       <c r="F16">
-        <v>77.98037756657182</v>
+        <v>29.78104587087752</v>
       </c>
       <c r="G16">
-        <v>2.020197806976031</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>36.68490220172033</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.821250439473443</v>
       </c>
       <c r="J16">
-        <v>8.100932358021586</v>
+        <v>10.93952275083945</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.68003550633444</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.943171998490421</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1165,46 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.21967299643577</v>
+        <v>29.33146518308565</v>
       </c>
       <c r="C17">
-        <v>22.01843491455727</v>
+        <v>24.3833689416152</v>
       </c>
       <c r="D17">
-        <v>3.95756157538153</v>
+        <v>7.727995173519107</v>
       </c>
       <c r="E17">
-        <v>7.522710890762495</v>
+        <v>12.21629311235953</v>
       </c>
       <c r="F17">
-        <v>76.34031935365878</v>
+        <v>29.35855345724588</v>
       </c>
       <c r="G17">
-        <v>2.028264109989081</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.0703458720164</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.707487577946816</v>
       </c>
       <c r="J17">
-        <v>8.000466952895923</v>
+        <v>10.87612331577669</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.70577349163296</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.879355455470584</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1215,46 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.77182208955513</v>
+        <v>28.96465060056744</v>
       </c>
       <c r="C18">
-        <v>21.68420279204384</v>
+        <v>24.05093021120209</v>
       </c>
       <c r="D18">
-        <v>3.906988572048868</v>
+        <v>7.645935055384307</v>
       </c>
       <c r="E18">
-        <v>7.464921348877775</v>
+        <v>12.09546324460228</v>
       </c>
       <c r="F18">
-        <v>75.39726187554948</v>
+        <v>29.15904238960221</v>
       </c>
       <c r="G18">
-        <v>2.03287818991996</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>35.79292861585835</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.639560519338393</v>
       </c>
       <c r="J18">
-        <v>7.943450804323096</v>
+        <v>10.85656554477237</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.75525762358865</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.843916668502261</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1265,46 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.6197630548029</v>
+        <v>28.83910515965169</v>
       </c>
       <c r="C19">
-        <v>21.57076940217694</v>
+        <v>23.95893169747546</v>
       </c>
       <c r="D19">
-        <v>3.889895017895975</v>
+        <v>7.625451928850019</v>
       </c>
       <c r="E19">
-        <v>7.445515816839597</v>
+        <v>12.05783095377411</v>
       </c>
       <c r="F19">
-        <v>75.07794526442028</v>
+        <v>29.05889029042668</v>
       </c>
       <c r="G19">
-        <v>2.034436637581171</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>35.64121923741457</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.618266118419742</v>
       </c>
       <c r="J19">
-        <v>7.924273243290136</v>
+        <v>10.83791734583931</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.74710430778725</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.83119929394224</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1315,46 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.30236559047394</v>
+        <v>29.39903184584837</v>
       </c>
       <c r="C20">
-        <v>22.08017243896181</v>
+        <v>24.43734317998336</v>
       </c>
       <c r="D20">
-        <v>3.966936820989199</v>
+        <v>7.7406242309638</v>
       </c>
       <c r="E20">
-        <v>7.533484049949671</v>
+        <v>12.23745887579257</v>
       </c>
       <c r="F20">
-        <v>76.51486508226239</v>
+        <v>29.4067426876666</v>
       </c>
       <c r="G20">
-        <v>2.027408209862537</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.14153004744743</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.719427725430756</v>
       </c>
       <c r="J20">
-        <v>8.011080885218131</v>
+        <v>10.8839993909023</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.70539545544083</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.886198204413427</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1365,46 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.57089234420537</v>
+        <v>31.21452917215906</v>
       </c>
       <c r="C21">
-        <v>23.77697586872368</v>
+        <v>25.97302748999908</v>
       </c>
       <c r="D21">
-        <v>4.228670543761953</v>
+        <v>8.11272308571751</v>
       </c>
       <c r="E21">
-        <v>7.841003330925355</v>
+        <v>12.82996624638189</v>
       </c>
       <c r="F21">
-        <v>81.3507744199687</v>
+        <v>30.62654459894672</v>
       </c>
       <c r="G21">
-        <v>2.00344333578448</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>37.90309951489976</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.05488208888149</v>
       </c>
       <c r="J21">
-        <v>8.312340945884856</v>
+        <v>11.06633910007947</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.61890776387868</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.075158346188191</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1415,46 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.04119129708092</v>
+        <v>32.3530410666976</v>
       </c>
       <c r="C22">
-        <v>24.88030750951495</v>
+        <v>26.90709750280048</v>
       </c>
       <c r="D22">
-        <v>4.403006120951</v>
+        <v>8.338603197780852</v>
       </c>
       <c r="E22">
-        <v>8.051973779427833</v>
+        <v>13.20601747627784</v>
       </c>
       <c r="F22">
-        <v>84.53011098588431</v>
+        <v>31.48914560593368</v>
       </c>
       <c r="G22">
-        <v>1.987403754772853</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>39.1617091560231</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.270607790732609</v>
       </c>
       <c r="J22">
-        <v>8.517441331539805</v>
+        <v>11.21757146687055</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.62880712874909</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.202435385272832</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1465,46 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.25713743839182</v>
+        <v>31.75048435431155</v>
       </c>
       <c r="C23">
-        <v>24.29156601807779</v>
+        <v>26.37731050754083</v>
       </c>
       <c r="D23">
-        <v>4.309577897626562</v>
+        <v>8.206374190108608</v>
       </c>
       <c r="E23">
-        <v>7.938380254594743</v>
+        <v>13.00030703655657</v>
       </c>
       <c r="F23">
-        <v>82.83056524532374</v>
+        <v>31.08226299611022</v>
       </c>
       <c r="G23">
-        <v>1.996007268879931</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>38.58437952739875</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.153644131304776</v>
       </c>
       <c r="J23">
-        <v>8.407146006337332</v>
+        <v>11.15671806561842</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.66591865927552</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.13558375642361</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1515,46 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26498812470846</v>
+        <v>29.36957020110972</v>
       </c>
       <c r="C24">
-        <v>22.05226583481507</v>
+        <v>24.35532477481178</v>
       </c>
       <c r="D24">
-        <v>3.962697723365296</v>
+        <v>7.714825635577538</v>
       </c>
       <c r="E24">
-        <v>7.528610591905852</v>
+        <v>12.21871339546362</v>
       </c>
       <c r="F24">
-        <v>76.43595363818486</v>
+        <v>29.47427691317169</v>
       </c>
       <c r="G24">
-        <v>2.027795233494631</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>36.2670739386083</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.709983762262386</v>
       </c>
       <c r="J24">
-        <v>8.006280026441294</v>
+        <v>10.91384881404578</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.7749413715886</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.885196980285604</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1565,46 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94723478706926</v>
+        <v>26.58814991472213</v>
       </c>
       <c r="C25">
-        <v>19.58073189533245</v>
+        <v>22.01952922215652</v>
       </c>
       <c r="D25">
-        <v>3.59588606566679</v>
+        <v>7.164097653895557</v>
       </c>
       <c r="E25">
-        <v>7.123211475615012</v>
+        <v>11.35327882914972</v>
       </c>
       <c r="F25">
-        <v>69.54455644083151</v>
+        <v>27.78573596795735</v>
       </c>
       <c r="G25">
-        <v>2.061160397892845</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>33.81775045073151</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.222691389438027</v>
       </c>
       <c r="J25">
-        <v>7.60291424750163</v>
+        <v>10.69463071680488</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.969135619006</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.625762131633184</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1613,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.35395338614069</v>
+        <v>24.36751563645644</v>
       </c>
       <c r="C2">
-        <v>20.05770378131781</v>
+        <v>20.72283872522777</v>
       </c>
       <c r="D2">
-        <v>6.707676176155155</v>
+        <v>6.957717372946322</v>
       </c>
       <c r="E2">
-        <v>10.68350639889249</v>
+        <v>10.79826773726218</v>
       </c>
       <c r="F2">
-        <v>26.73630056587473</v>
+        <v>25.66425123293181</v>
       </c>
       <c r="G2">
-        <v>32.33438935445173</v>
+        <v>29.88788167490125</v>
       </c>
       <c r="I2">
-        <v>2.848376691328823</v>
+        <v>2.878973586372184</v>
       </c>
       <c r="J2">
-        <v>10.61988605569925</v>
+        <v>10.71359203779972</v>
       </c>
       <c r="K2">
-        <v>14.27234020259953</v>
+        <v>13.44907245619089</v>
       </c>
       <c r="L2">
-        <v>6.447492235020472</v>
+        <v>11.90634310712977</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.049090735187065</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.422938524677803</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,46 +477,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.71937947864836</v>
+        <v>22.74905776604932</v>
       </c>
       <c r="C3">
-        <v>18.69530507097802</v>
+        <v>19.25773650062008</v>
       </c>
       <c r="D3">
-        <v>6.408701422776542</v>
+        <v>6.629222128417942</v>
       </c>
       <c r="E3">
-        <v>10.23004035190196</v>
+        <v>10.33150654657479</v>
       </c>
       <c r="F3">
-        <v>25.97020842763814</v>
+        <v>25.02833622806369</v>
       </c>
       <c r="G3">
-        <v>31.21438721417725</v>
+        <v>29.01695806151196</v>
       </c>
       <c r="I3">
-        <v>2.590077207631681</v>
+        <v>2.657078629762899</v>
       </c>
       <c r="J3">
-        <v>10.55775896323417</v>
+        <v>10.64495099685302</v>
       </c>
       <c r="K3">
-        <v>14.4450457178931</v>
+        <v>13.69183282334279</v>
       </c>
       <c r="L3">
-        <v>6.330751140310695</v>
+        <v>12.12622191790085</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.183808174240198</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.308090150946939</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -521,46 +533,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65609264302276</v>
+        <v>21.69555727133477</v>
       </c>
       <c r="C4">
-        <v>17.81662571727744</v>
+        <v>18.3111286929867</v>
       </c>
       <c r="D4">
-        <v>6.222061604270871</v>
+        <v>6.423978745886419</v>
       </c>
       <c r="E4">
-        <v>9.948710739283635</v>
+        <v>10.04157064231935</v>
       </c>
       <c r="F4">
-        <v>25.51199862255942</v>
+        <v>24.64792658337819</v>
       </c>
       <c r="G4">
-        <v>30.54003147124775</v>
+        <v>28.50188485935028</v>
       </c>
       <c r="I4">
-        <v>2.517638481155833</v>
+        <v>2.517724405008114</v>
       </c>
       <c r="J4">
-        <v>10.52735513360394</v>
+        <v>10.60533963351682</v>
       </c>
       <c r="K4">
-        <v>14.56187402985684</v>
+        <v>13.84781705964863</v>
       </c>
       <c r="L4">
-        <v>6.262014593504109</v>
+        <v>12.26225167526097</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.297231826004262</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.240287584831377</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -571,46 +589,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.20750229226094</v>
+        <v>21.25095465554224</v>
       </c>
       <c r="C5">
-        <v>17.46043170369011</v>
+        <v>17.92512530664323</v>
       </c>
       <c r="D5">
-        <v>6.149353993431376</v>
+        <v>6.343261543579619</v>
       </c>
       <c r="E5">
-        <v>9.835334995322416</v>
+        <v>9.92443661905328</v>
       </c>
       <c r="F5">
-        <v>25.3117737153316</v>
+        <v>24.48032654578191</v>
       </c>
       <c r="G5">
-        <v>30.2384960268405</v>
+        <v>28.26916514734603</v>
       </c>
       <c r="I5">
-        <v>2.591418969776365</v>
+        <v>2.494004130590211</v>
       </c>
       <c r="J5">
-        <v>10.51117486130696</v>
+        <v>10.58476852175171</v>
       </c>
       <c r="K5">
-        <v>14.60112354394767</v>
+        <v>13.90371008677071</v>
       </c>
       <c r="L5">
-        <v>6.234389785774343</v>
+        <v>12.30981175326956</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.3449054716689</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.213020047074229</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -621,46 +645,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.13186265577658</v>
+        <v>21.17598582243283</v>
       </c>
       <c r="C6">
-        <v>17.415993018411</v>
+        <v>17.87455402765226</v>
       </c>
       <c r="D6">
-        <v>6.142165837795144</v>
+        <v>6.334329735417269</v>
       </c>
       <c r="E6">
-        <v>9.818733976542998</v>
+        <v>9.907014890376944</v>
       </c>
       <c r="F6">
-        <v>25.25829749876821</v>
+        <v>24.43411137008975</v>
       </c>
       <c r="G6">
-        <v>30.15154030680556</v>
+        <v>28.19683029110044</v>
       </c>
       <c r="I6">
-        <v>2.607919129959557</v>
+        <v>2.509679848657289</v>
       </c>
       <c r="J6">
-        <v>10.50168567366107</v>
+        <v>10.5752300220568</v>
       </c>
       <c r="K6">
-        <v>14.59449901350833</v>
+        <v>13.90173818669109</v>
       </c>
       <c r="L6">
-        <v>6.22940467250549</v>
+        <v>12.30778999391556</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.346150019641604</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.208129468149679</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -671,46 +701,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.64946431125227</v>
+        <v>21.68865625176571</v>
       </c>
       <c r="C7">
-        <v>17.85273677013773</v>
+        <v>18.33255515551519</v>
       </c>
       <c r="D7">
-        <v>6.234305235250747</v>
+        <v>6.442333445094675</v>
       </c>
       <c r="E7">
-        <v>9.953243263900882</v>
+        <v>10.04887872849198</v>
       </c>
       <c r="F7">
-        <v>25.45400360778896</v>
+        <v>24.56544606403653</v>
       </c>
       <c r="G7">
-        <v>30.43569433156371</v>
+        <v>28.47534485842298</v>
       </c>
       <c r="I7">
-        <v>2.529771087129626</v>
+        <v>2.519698854428135</v>
       </c>
       <c r="J7">
-        <v>10.50828871630538</v>
+        <v>10.53436953841082</v>
       </c>
       <c r="K7">
-        <v>14.52597763039591</v>
+        <v>13.80454484369628</v>
       </c>
       <c r="L7">
-        <v>6.260433155941255</v>
+        <v>12.22504743871251</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.269242585760828</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.238173545962267</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -721,46 +757,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.80185664376993</v>
+        <v>23.81994578636269</v>
       </c>
       <c r="C8">
-        <v>19.64633608000655</v>
+        <v>20.23877528505732</v>
       </c>
       <c r="D8">
-        <v>6.621796796062885</v>
+        <v>6.883365946289589</v>
       </c>
       <c r="E8">
-        <v>10.53541435847735</v>
+        <v>10.65552575426769</v>
       </c>
       <c r="F8">
-        <v>26.39905867295095</v>
+        <v>25.28236282086501</v>
       </c>
       <c r="G8">
-        <v>31.818363468749</v>
+        <v>29.68767032217044</v>
       </c>
       <c r="I8">
-        <v>2.762344529641565</v>
+        <v>2.804198446440184</v>
       </c>
       <c r="J8">
-        <v>10.57210947403443</v>
+        <v>10.49118560414439</v>
       </c>
       <c r="K8">
-        <v>14.28090428358926</v>
+        <v>13.44723000706151</v>
       </c>
       <c r="L8">
-        <v>6.405064853565555</v>
+        <v>11.91505813735308</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.026803286491134</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.379237144561814</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -771,46 +813,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.55503282899155</v>
+        <v>27.5311891133663</v>
       </c>
       <c r="C9">
-        <v>22.76842725891403</v>
+        <v>23.58911238313824</v>
       </c>
       <c r="D9">
-        <v>7.331909053317951</v>
+        <v>7.668433088720211</v>
       </c>
       <c r="E9">
-        <v>11.6382874700951</v>
+        <v>11.79067370739542</v>
       </c>
       <c r="F9">
-        <v>28.43757072127178</v>
+        <v>26.96253863260098</v>
       </c>
       <c r="G9">
-        <v>34.79464292593185</v>
+        <v>32.1188958778995</v>
       </c>
       <c r="I9">
-        <v>3.385356297458446</v>
+        <v>3.337662936850784</v>
       </c>
       <c r="J9">
-        <v>10.79578926828511</v>
+        <v>10.65237810338349</v>
       </c>
       <c r="K9">
-        <v>13.96128578600011</v>
+        <v>12.90951551168996</v>
       </c>
       <c r="L9">
-        <v>6.713773293243869</v>
+        <v>11.39804286950093</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.887729985342551</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.681197678799975</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -821,46 +869,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.03299813011808</v>
+        <v>29.97434108844448</v>
       </c>
       <c r="C10">
-        <v>24.88271645771817</v>
+        <v>25.79596529963122</v>
       </c>
       <c r="D10">
-        <v>7.838232739000691</v>
+        <v>8.259742424143141</v>
       </c>
       <c r="E10">
-        <v>12.42737551774031</v>
+        <v>12.61543496401885</v>
       </c>
       <c r="F10">
-        <v>29.95936106287002</v>
+        <v>28.06784678317979</v>
       </c>
       <c r="G10">
-        <v>36.98410930534666</v>
+        <v>34.30015606461621</v>
       </c>
       <c r="I10">
-        <v>3.829630816658954</v>
+        <v>3.714968875610153</v>
       </c>
       <c r="J10">
-        <v>10.99592594901295</v>
+        <v>10.48150876624658</v>
       </c>
       <c r="K10">
-        <v>13.78003034114717</v>
+        <v>12.46913329006755</v>
       </c>
       <c r="L10">
-        <v>6.953556412510846</v>
+        <v>10.96198900994772</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.886967295078852</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.911157191200211</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -871,46 +925,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10022437035006</v>
+        <v>31.02209888899214</v>
       </c>
       <c r="C11">
-        <v>25.85050533127177</v>
+        <v>26.71299918451338</v>
       </c>
       <c r="D11">
-        <v>8.08007682539114</v>
+        <v>8.596427712859311</v>
       </c>
       <c r="E11">
-        <v>12.7878737623979</v>
+        <v>13.01711363626826</v>
       </c>
       <c r="F11">
-        <v>30.58640909789102</v>
+        <v>28.25072710932315</v>
       </c>
       <c r="G11">
-        <v>37.85764533032538</v>
+        <v>35.78473671141526</v>
       </c>
       <c r="I11">
-        <v>4.03155453287204</v>
+        <v>3.882556496713017</v>
       </c>
       <c r="J11">
-        <v>11.06899122779243</v>
+        <v>9.878110394429292</v>
       </c>
       <c r="K11">
-        <v>13.65527477894684</v>
+        <v>12.0960269661157</v>
       </c>
       <c r="L11">
-        <v>7.063712771018002</v>
+        <v>10.65237548185964</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.758264868583109</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.010412401920109</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -921,46 +981,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.49648495105434</v>
+        <v>31.41048225879208</v>
       </c>
       <c r="C12">
-        <v>26.18504017951749</v>
+        <v>27.02010850849561</v>
       </c>
       <c r="D12">
-        <v>8.161711598099558</v>
+        <v>8.721417658109555</v>
       </c>
       <c r="E12">
-        <v>12.91928124503062</v>
+        <v>13.16739945638615</v>
       </c>
       <c r="F12">
-        <v>30.86613814728096</v>
+        <v>28.32730448278787</v>
       </c>
       <c r="G12">
-        <v>38.26166924298749</v>
+        <v>36.48493151293599</v>
       </c>
       <c r="I12">
-        <v>4.10644929891408</v>
+        <v>3.942978716859725</v>
       </c>
       <c r="J12">
-        <v>11.1137934119474</v>
+        <v>9.60634709801311</v>
       </c>
       <c r="K12">
-        <v>13.64363706928932</v>
+        <v>11.965852407368</v>
       </c>
       <c r="L12">
-        <v>7.106803594113802</v>
+        <v>10.5433255785139</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.722981413958893</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.048445651272487</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -971,46 +1037,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.41161304900554</v>
+        <v>31.32731262811797</v>
       </c>
       <c r="C13">
-        <v>26.10814873383044</v>
+        <v>26.94995595110603</v>
       </c>
       <c r="D13">
-        <v>8.142367156440214</v>
+        <v>8.692597733065996</v>
       </c>
       <c r="E13">
-        <v>12.89020296606715</v>
+        <v>13.13419927291003</v>
       </c>
       <c r="F13">
-        <v>30.81389016922502</v>
+        <v>28.31940949565704</v>
       </c>
       <c r="G13">
-        <v>38.18872899655765</v>
+        <v>36.34380373174053</v>
       </c>
       <c r="I13">
-        <v>4.09003978531071</v>
+        <v>3.929507088105164</v>
       </c>
       <c r="J13">
-        <v>11.10715479758101</v>
+        <v>9.669686509508924</v>
       </c>
       <c r="K13">
-        <v>13.65255524941331</v>
+        <v>11.99984767972337</v>
       </c>
       <c r="L13">
-        <v>7.097697568732364</v>
+        <v>10.57038495076009</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.735916865327475</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.04044842292927</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1021,46 +1093,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.13303435529942</v>
+        <v>31.05426394577965</v>
       </c>
       <c r="C14">
-        <v>25.87595853550549</v>
+        <v>26.73656270649129</v>
       </c>
       <c r="D14">
-        <v>8.086039569519095</v>
+        <v>8.605891275925828</v>
       </c>
       <c r="E14">
-        <v>12.79835293825442</v>
+        <v>13.02911891477236</v>
       </c>
       <c r="F14">
-        <v>30.6128388540566</v>
+        <v>28.26073248059281</v>
       </c>
       <c r="G14">
-        <v>37.8969042088094</v>
+        <v>35.84640756361628</v>
       </c>
       <c r="I14">
-        <v>4.03759023372004</v>
+        <v>3.887325013952684</v>
       </c>
       <c r="J14">
-        <v>11.07395781415637</v>
+        <v>9.85788740762486</v>
       </c>
       <c r="K14">
-        <v>13.65703648437759</v>
+        <v>12.08787360662456</v>
       </c>
       <c r="L14">
-        <v>7.067331742385657</v>
+        <v>10.64495219423316</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.757638298148681</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.013624521888906</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1071,46 +1149,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96111413372571</v>
+        <v>30.88569943213389</v>
       </c>
       <c r="C15">
-        <v>25.74319588807187</v>
+        <v>26.61323052293162</v>
       </c>
       <c r="D15">
-        <v>8.055024992440057</v>
+        <v>8.556821711949903</v>
       </c>
       <c r="E15">
-        <v>12.74360751047811</v>
+        <v>12.96650274240428</v>
       </c>
       <c r="F15">
-        <v>30.47380912199521</v>
+        <v>28.20641890778377</v>
       </c>
       <c r="G15">
-        <v>37.69010143992748</v>
+        <v>35.52541012203157</v>
       </c>
       <c r="I15">
-        <v>4.006097905620881</v>
+        <v>3.862468959809772</v>
       </c>
       <c r="J15">
-        <v>11.0477328822408</v>
+        <v>9.961105946013442</v>
       </c>
       <c r="K15">
-        <v>13.64730299442818</v>
+        <v>12.12933598486702</v>
       </c>
       <c r="L15">
-        <v>7.048403461283856</v>
+        <v>10.68304794838588</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.760005038461235</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.996791424721119</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1121,46 +1205,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.96040782135346</v>
+        <v>29.90315973591618</v>
       </c>
       <c r="C16">
-        <v>24.90676903666599</v>
+        <v>25.81531018014899</v>
       </c>
       <c r="D16">
-        <v>7.853162033683692</v>
+        <v>8.26673171845469</v>
       </c>
       <c r="E16">
-        <v>12.41776696543341</v>
+        <v>12.60229647841889</v>
       </c>
       <c r="F16">
-        <v>29.78104587087752</v>
+        <v>27.92751507418818</v>
       </c>
       <c r="G16">
-        <v>36.68490220172033</v>
+        <v>33.99201733832302</v>
       </c>
       <c r="I16">
-        <v>3.821250439473443</v>
+        <v>3.711971462302686</v>
       </c>
       <c r="J16">
-        <v>10.93952275083945</v>
+        <v>10.46972671501829</v>
       </c>
       <c r="K16">
-        <v>13.68003550633444</v>
+        <v>12.40273856883816</v>
       </c>
       <c r="L16">
-        <v>6.943171998490421</v>
+        <v>10.92421294699935</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.814050860510473</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.901675222874627</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1171,46 +1261,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.33146518308565</v>
+        <v>29.28454351325932</v>
       </c>
       <c r="C17">
-        <v>24.3833689416152</v>
+        <v>25.29716417755489</v>
       </c>
       <c r="D17">
-        <v>7.727995173519107</v>
+        <v>8.099246983685827</v>
       </c>
       <c r="E17">
-        <v>12.21629311235953</v>
+        <v>12.38248675829828</v>
       </c>
       <c r="F17">
-        <v>29.35855345724588</v>
+        <v>27.70424446071532</v>
       </c>
       <c r="G17">
-        <v>36.0703458720164</v>
+        <v>33.17940217742389</v>
       </c>
       <c r="I17">
-        <v>3.707487577946816</v>
+        <v>3.618218713660921</v>
       </c>
       <c r="J17">
-        <v>10.87612331577669</v>
+        <v>10.67789707266102</v>
       </c>
       <c r="K17">
-        <v>13.70577349163296</v>
+        <v>12.54456407459974</v>
       </c>
       <c r="L17">
-        <v>6.879355455470584</v>
+        <v>11.05591303122163</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.830652838215384</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.842625986103262</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1221,46 +1317,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.96465060056744</v>
+        <v>28.92331095160085</v>
       </c>
       <c r="C18">
-        <v>24.05093021120209</v>
+        <v>24.96299139346383</v>
       </c>
       <c r="D18">
-        <v>7.645935055384307</v>
+        <v>7.997993963300981</v>
       </c>
       <c r="E18">
-        <v>12.09546324460228</v>
+        <v>12.25340876643087</v>
       </c>
       <c r="F18">
-        <v>29.15904238960221</v>
+        <v>27.59538547726413</v>
       </c>
       <c r="G18">
-        <v>35.79292861585835</v>
+        <v>32.82743358821935</v>
       </c>
       <c r="I18">
-        <v>3.639560519338393</v>
+        <v>3.560234659534492</v>
       </c>
       <c r="J18">
-        <v>10.85656554477237</v>
+        <v>10.77265978476562</v>
       </c>
       <c r="K18">
-        <v>13.75525762358865</v>
+        <v>12.64398728383056</v>
       </c>
       <c r="L18">
-        <v>6.843916668502261</v>
+        <v>11.14337729901978</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.858596469702646</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.809327373329443</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1271,46 +1373,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.83910515965169</v>
+        <v>28.79964753584385</v>
       </c>
       <c r="C19">
-        <v>23.95893169747546</v>
+        <v>24.86765151073355</v>
       </c>
       <c r="D19">
-        <v>7.625451928850019</v>
+        <v>7.971118505306779</v>
       </c>
       <c r="E19">
-        <v>12.05783095377411</v>
+        <v>12.2130151436096</v>
       </c>
       <c r="F19">
-        <v>29.05889029042668</v>
+        <v>27.52568701212938</v>
       </c>
       <c r="G19">
-        <v>35.64121923741457</v>
+        <v>32.66332593171046</v>
       </c>
       <c r="I19">
-        <v>3.618266118419742</v>
+        <v>3.543106794841924</v>
       </c>
       <c r="J19">
-        <v>10.83791734583931</v>
+        <v>10.78775329716181</v>
       </c>
       <c r="K19">
-        <v>13.74710430778725</v>
+        <v>12.65535006011706</v>
       </c>
       <c r="L19">
-        <v>6.83119929394224</v>
+        <v>11.1582100393533</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.848746292270782</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.79731979017582</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1321,46 +1429,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.39903184584837</v>
+        <v>29.35103765429345</v>
       </c>
       <c r="C20">
-        <v>24.43734317998336</v>
+        <v>25.35144223451087</v>
       </c>
       <c r="D20">
-        <v>7.7406242309638</v>
+        <v>8.115997157377059</v>
       </c>
       <c r="E20">
-        <v>12.23745887579257</v>
+        <v>12.40543649397941</v>
       </c>
       <c r="F20">
-        <v>29.4067426876666</v>
+        <v>27.73296908588087</v>
       </c>
       <c r="G20">
-        <v>36.14153004744743</v>
+        <v>33.26640177320866</v>
       </c>
       <c r="I20">
-        <v>3.719427725430756</v>
+        <v>3.627979627056025</v>
       </c>
       <c r="J20">
-        <v>10.8839993909023</v>
+        <v>10.66077082269703</v>
       </c>
       <c r="K20">
-        <v>13.70539545544083</v>
+        <v>12.53252659775368</v>
       </c>
       <c r="L20">
-        <v>6.886198204413427</v>
+        <v>11.04390038594515</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.831350313322731</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.849007242701931</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1371,46 +1485,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.21452917215906</v>
+        <v>31.13319204444291</v>
       </c>
       <c r="C21">
-        <v>25.97302748999908</v>
+        <v>26.79594916819716</v>
       </c>
       <c r="D21">
-        <v>8.11272308571751</v>
+        <v>8.661606692284018</v>
       </c>
       <c r="E21">
-        <v>12.82996624638189</v>
+        <v>13.07371693257192</v>
       </c>
       <c r="F21">
-        <v>30.62654459894672</v>
+        <v>28.14389683690119</v>
       </c>
       <c r="G21">
-        <v>37.90309951489976</v>
+        <v>36.13143039221375</v>
       </c>
       <c r="I21">
-        <v>4.05488208888149</v>
+        <v>3.900765123601061</v>
       </c>
       <c r="J21">
-        <v>11.06633910007947</v>
+        <v>9.615956613721805</v>
       </c>
       <c r="K21">
-        <v>13.61890776387868</v>
+        <v>11.98559078316756</v>
       </c>
       <c r="L21">
-        <v>7.075158346188191</v>
+        <v>10.57613807833906</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.680629537018732</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.018305978545795</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1421,46 +1541,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.3530410666976</v>
+        <v>32.24895553447234</v>
       </c>
       <c r="C22">
-        <v>26.90709750280048</v>
+        <v>27.66416069051786</v>
       </c>
       <c r="D22">
-        <v>8.338603197780852</v>
+        <v>9.005730316138946</v>
       </c>
       <c r="E22">
-        <v>13.20601747627784</v>
+        <v>13.50092582841078</v>
       </c>
       <c r="F22">
-        <v>31.48914560593368</v>
+        <v>28.44690047288832</v>
       </c>
       <c r="G22">
-        <v>39.1617091560231</v>
+        <v>38.16301199335283</v>
       </c>
       <c r="I22">
-        <v>4.270607790732609</v>
+        <v>4.074379449279469</v>
       </c>
       <c r="J22">
-        <v>11.21757146687055</v>
+        <v>8.917745102275882</v>
       </c>
       <c r="K22">
-        <v>13.62880712874909</v>
+        <v>11.65452758758984</v>
       </c>
       <c r="L22">
-        <v>7.202435385272832</v>
+        <v>10.29093491918374</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.628701266771921</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.131382504774329</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1471,46 +1597,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.75048435431155</v>
+        <v>31.65921696803177</v>
       </c>
       <c r="C23">
-        <v>26.37731050754083</v>
+        <v>27.19357123573896</v>
       </c>
       <c r="D23">
-        <v>8.206374190108608</v>
+        <v>8.796605041460149</v>
       </c>
       <c r="E23">
-        <v>13.00030703655657</v>
+        <v>13.26173886710854</v>
       </c>
       <c r="F23">
-        <v>31.08226299611022</v>
+        <v>28.40020330175549</v>
       </c>
       <c r="G23">
-        <v>38.58437952739875</v>
+        <v>37.01309922713671</v>
       </c>
       <c r="I23">
-        <v>4.153644131304776</v>
+        <v>3.979851186619981</v>
       </c>
       <c r="J23">
-        <v>11.15671806561842</v>
+        <v>9.426534213915215</v>
       </c>
       <c r="K23">
-        <v>13.66591865927552</v>
+        <v>11.90046135423006</v>
       </c>
       <c r="L23">
-        <v>7.13558375642361</v>
+        <v>10.4844294558901</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.718503839219837</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.073640501964776</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1521,46 +1653,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.36957020110972</v>
+        <v>29.32193967342053</v>
       </c>
       <c r="C24">
-        <v>24.35532477481178</v>
+        <v>25.27360439480747</v>
       </c>
       <c r="D24">
-        <v>7.714825635577538</v>
+        <v>8.090052885464367</v>
       </c>
       <c r="E24">
-        <v>12.21871339546362</v>
+        <v>12.3866882425653</v>
       </c>
       <c r="F24">
-        <v>29.47427691317169</v>
+        <v>27.80078169643837</v>
       </c>
       <c r="G24">
-        <v>36.2670739386083</v>
+        <v>33.37097111229595</v>
       </c>
       <c r="I24">
-        <v>3.709983762262386</v>
+        <v>3.617272729162832</v>
       </c>
       <c r="J24">
-        <v>10.91384881404578</v>
+        <v>10.69692187041875</v>
       </c>
       <c r="K24">
-        <v>13.7749413715886</v>
+        <v>12.59500406732329</v>
       </c>
       <c r="L24">
-        <v>6.885196980285604</v>
+        <v>11.08661174669428</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.881896686419402</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.848021557134559</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1571,46 +1709,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.58814991472213</v>
+        <v>26.57651492632078</v>
       </c>
       <c r="C25">
-        <v>22.01952922215652</v>
+        <v>22.79164666575774</v>
       </c>
       <c r="D25">
-        <v>7.164097653895557</v>
+        <v>7.470090088012106</v>
       </c>
       <c r="E25">
-        <v>11.35327882914972</v>
+        <v>11.49248731374852</v>
       </c>
       <c r="F25">
-        <v>27.78573596795735</v>
+        <v>26.45672185526723</v>
       </c>
       <c r="G25">
-        <v>33.81775045073151</v>
+        <v>31.20638678922197</v>
       </c>
       <c r="I25">
-        <v>3.222691389438027</v>
+        <v>3.201691794783171</v>
       </c>
       <c r="J25">
-        <v>10.69463071680488</v>
+        <v>10.65215879110216</v>
       </c>
       <c r="K25">
-        <v>13.969135619006</v>
+        <v>13.0106750010956</v>
       </c>
       <c r="L25">
-        <v>6.625762131633184</v>
+        <v>11.51115530991649</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.863398352549924</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.596315658635741</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1619,6 +1763,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
